--- a/Pour MA.xlsx
+++ b/Pour MA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">Package</t>
   </si>
   <si>
+    <t xml:space="preserve">Remarque</t>
+  </si>
+  <si>
     <t xml:space="preserve">Commande des pièces et composants + livraison</t>
   </si>
   <si>
@@ -113,6 +116,57 @@
   </si>
   <si>
     <t xml:space="preserve">Test du circuit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise en place de l’environnement logiciel sur le BBG (OS, réseau…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement logiciel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toutes ces étapes pourraient être subdivisées en nombreuses sous-étapes : le développement de chaque module étant décomposeable en de nombreuses itérations partant de la structure la plus basique et allant jusqu’au module complet via de nombreuses « couches » successives. Le nombre de tests est ici bien trop important pour que ces derniers soient mentionné.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement des modules capteurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement du module de synthèse « codes-barres »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement du module de synthèse « suivi de ligne »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement du module de synthèse « Détection de feux »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement du module de synthèse « Détection autres véhicules »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de l’ordonnanceur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,20, 21,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement du programme principal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EN PARALLÈLE DE TOUT LE RESTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Construction de la documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essai globaux et corrections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -123,11 +177,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0&quot; j&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -149,13 +204,28 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -166,11 +236,53 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -200,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -213,20 +325,84 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="60" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="60" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="60" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="60" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="60" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -246,560 +422,722 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="A1:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.71428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.4132653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="7.08163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.6020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.6326530612245"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.30612244897959"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.9183673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.7142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.79081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.8010204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="4.99489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="2.77040816326531"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.88775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.02040816326531"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.219387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="4" width="28.015306122449"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="89.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12" t="n">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D2" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="H2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="n">
+    </row>
+    <row r="3" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="n">
+      <c r="D3" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="13" t="n">
         <f aca="false">C3*8*D3</f>
         <v>8</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="13" t="n">
         <f aca="false">A2</f>
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
+      <c r="B4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="13" t="n">
         <f aca="false">C4*8*D4</f>
         <v>16</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="13" t="n">
         <f aca="false">A3</f>
         <v>2</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="0" t="n">
+      <c r="D5" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="13" t="n">
         <f aca="false">C5*8*D5</f>
         <v>8</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="13" t="n">
         <f aca="false">A4</f>
         <v>3</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
+      <c r="D6" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="n">
         <f aca="false">C6*8*D6</f>
         <v>2</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="F6" s="13" t="n">
+        <f aca="false">A5</f>
+        <v>4</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="0" t="n">
+      <c r="B7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="13" t="n">
         <f aca="false">C7*8*D7</f>
         <v>16</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="13" t="n">
         <f aca="false">A2</f>
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="G7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="0" t="n">
+      <c r="B8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" s="13" t="n">
         <f aca="false">C8*8*D8</f>
         <v>16</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="13" t="n">
         <f aca="false">A7</f>
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
+      <c r="D9" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="n">
         <f aca="false">C9*8*D9</f>
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="13" t="n">
         <v>5.7</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
+      <c r="D10" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="n">
         <f aca="false">C10*8*D10</f>
         <v>2</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="F10" s="13" t="n">
+        <f aca="false">A9</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="n">
+      <c r="B11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="0" t="s">
+      <c r="F11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>24</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="0" t="n">
+      <c r="D12" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13" t="n">
         <f aca="false">C12*8*D12</f>
         <v>8</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="13" t="n">
         <f aca="false">A2</f>
         <v>1</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="0" t="n">
+      <c r="D13" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="13" t="n">
         <f aca="false">C13*8*D13</f>
         <v>8</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="13" t="n">
         <f aca="false">A12</f>
         <v>11</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
+      <c r="D14" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13" t="n">
         <f aca="false">C14*8*D14</f>
         <v>4</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="13" t="n">
         <f aca="false">A13</f>
         <v>12</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
+      <c r="B15" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="n">
         <f aca="false">C15*8*D15</f>
         <v>8</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="13" t="n">
         <f aca="false">A14</f>
         <v>13</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="12" t="n">
         <v>0.5</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
+      <c r="D16" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <f aca="false">C16*8*D16</f>
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="13" t="n">
         <f aca="false">A13</f>
         <v>12</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="12" t="n">
         <v>0.25</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
+      <c r="D17" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="n">
         <f aca="false">C17*8*D17</f>
         <v>2</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
+      <c r="F17" s="13" t="n">
+        <f aca="false">A16</f>
+        <v>15</v>
+      </c>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="0" t="n">
+    </row>
+    <row r="18" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="n">
         <f aca="false">C18*8*D18</f>
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D19" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="13" t="n">
         <f aca="false">C19*8*D19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="B20" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D20" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="n">
         <f aca="false">C20*8*D20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="B21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="12" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13" t="n">
         <f aca="false">C21*8*D21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="B22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="13" t="n">
         <f aca="false">C22*8*D22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" s="14"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="B23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="13" t="n">
         <f aca="false">C23*8*D23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="F23" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G23" s="14"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="22.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" s="13" t="n">
         <f aca="false">C24*8*D24</f>
-        <v>0</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" s="13" t="n">
         <f aca="false">C25*8*D25</f>
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="14"/>
+      <c r="H25" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="n">
+      <c r="A26" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="13" t="n">
         <f aca="false">C26*8*D26</f>
-        <v>0</v>
+        <v>48</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="10" t="n">
         <v>26</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="B27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="12" t="n">
+        <v>4</v>
+      </c>
+      <c r="D27" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" s="13" t="n">
         <f aca="false">C27*8*D27</f>
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="0" t="n">
-        <f aca="false">C28*8*D28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="0" t="n">
-        <f aca="false">C29*8*D29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="0" t="n">
-        <f aca="false">C30*8*D30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E31" s="0" t="n">
-        <f aca="false">C31*8*D31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E32" s="0" t="n">
-        <f aca="false">C32*8*D32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="0" t="n">
-        <f aca="false">C33*8*D33</f>
-        <v>0</v>
-      </c>
+      <c r="A28" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17" t="n">
+        <f aca="false">SUM(C2:C27)</f>
+        <v>45</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19" t="n">
+        <f aca="false">SUM(E2:E27)</f>
+        <v>445</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="G11:G17"/>
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="H18:H24"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="0" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>